--- a/日本語ファイル名.xlsx
+++ b/日本語ファイル名.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\26Sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>設計書</t>
     <rPh sb="0" eb="2">
@@ -51,6 +46,13 @@
     <t>シートを追加</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計ドキュメント</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
+  <dimension ref="B3:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -535,6 +537,11 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
